--- a/Code/Results/Cases/Case_3_133/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_133/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.55480018283561</v>
+        <v>11.77581247187431</v>
       </c>
       <c r="C2">
-        <v>7.415028228862022</v>
+        <v>4.30849388745423</v>
       </c>
       <c r="D2">
-        <v>7.555015745111901</v>
+        <v>9.080955490700255</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32.34542467036145</v>
+        <v>39.9604522511483</v>
       </c>
       <c r="G2">
-        <v>40.13385380319534</v>
+        <v>45.54692491945634</v>
       </c>
       <c r="H2">
-        <v>12.84675087045706</v>
+        <v>18.35156440166791</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.300089261912982</v>
+        <v>11.46182058656796</v>
       </c>
       <c r="K2">
-        <v>11.92811109743624</v>
+        <v>11.19885843170536</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.61920748654368</v>
+        <v>11.55658328728954</v>
       </c>
       <c r="C3">
-        <v>6.978596149007335</v>
+        <v>4.131615732348081</v>
       </c>
       <c r="D3">
-        <v>7.130510844212766</v>
+        <v>9.019440278390874</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>31.52456575835527</v>
+        <v>39.89759092664531</v>
       </c>
       <c r="G3">
-        <v>39.08808199929796</v>
+        <v>45.42626749852234</v>
       </c>
       <c r="H3">
-        <v>12.76901986272419</v>
+        <v>18.37790802060222</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.033383667712361</v>
+        <v>11.4467360776916</v>
       </c>
       <c r="K3">
-        <v>11.16357113031938</v>
+        <v>11.0592728001403</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.0126683454568</v>
+        <v>11.42304943565954</v>
       </c>
       <c r="C4">
-        <v>6.697383939749649</v>
+        <v>4.020101316065793</v>
       </c>
       <c r="D4">
-        <v>6.860889403479244</v>
+        <v>8.983525954741829</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.03766024396915</v>
+        <v>39.86826908190728</v>
       </c>
       <c r="G4">
-        <v>38.47057216969319</v>
+        <v>45.36400271550427</v>
       </c>
       <c r="H4">
-        <v>12.72980616837224</v>
+        <v>18.39717498749985</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.871256908580011</v>
+        <v>11.43981626113052</v>
       </c>
       <c r="K4">
-        <v>10.6691248579643</v>
+        <v>10.97547241743088</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.75735607748307</v>
+        <v>11.36898407990322</v>
       </c>
       <c r="C5">
-        <v>6.57946734765594</v>
+        <v>3.974002560886933</v>
       </c>
       <c r="D5">
-        <v>6.748867048131796</v>
+        <v>8.969370811841101</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.84364097308022</v>
+        <v>39.85865711173489</v>
       </c>
       <c r="G5">
-        <v>38.22520555590482</v>
+        <v>45.3416117433708</v>
       </c>
       <c r="H5">
-        <v>12.71589205219625</v>
+        <v>18.40580254823609</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.805670756867817</v>
+        <v>11.4375870875789</v>
       </c>
       <c r="K5">
-        <v>10.46131725135393</v>
+        <v>10.94184395028145</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.7144677089124</v>
+        <v>11.36003012518539</v>
       </c>
       <c r="C6">
-        <v>6.559687325174536</v>
+        <v>3.966310690932637</v>
       </c>
       <c r="D6">
-        <v>6.730139618956933</v>
+        <v>8.967049743916789</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.81169262158187</v>
+        <v>39.85720228981437</v>
       </c>
       <c r="G6">
-        <v>38.18484387724435</v>
+        <v>45.33807410614778</v>
       </c>
       <c r="H6">
-        <v>12.71370418489091</v>
+        <v>18.40728198090933</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.794811506148301</v>
+        <v>11.43725265536836</v>
       </c>
       <c r="K6">
-        <v>10.42642886467677</v>
+        <v>10.93629262634512</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.00925818265662</v>
+        <v>11.42231876399305</v>
       </c>
       <c r="C7">
-        <v>6.695807099411333</v>
+        <v>4.019482160076425</v>
       </c>
       <c r="D7">
-        <v>6.859387174100664</v>
+        <v>8.983333091885022</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.03502569738568</v>
+        <v>39.86812998497075</v>
       </c>
       <c r="G7">
-        <v>38.46723755952877</v>
+        <v>45.36368865627578</v>
       </c>
       <c r="H7">
-        <v>12.72961025306489</v>
+        <v>18.39728820129609</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.870370341971332</v>
+        <v>11.43978380395646</v>
       </c>
       <c r="K7">
-        <v>10.6663478959603</v>
+        <v>10.97501672888071</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.23882008475273</v>
+        <v>11.70004762723546</v>
       </c>
       <c r="C8">
-        <v>7.267296990096867</v>
+        <v>4.248153381009556</v>
       </c>
       <c r="D8">
-        <v>7.410565728425719</v>
+        <v>9.05936809223104</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.05890175243865</v>
+        <v>39.936855923239</v>
       </c>
       <c r="G8">
-        <v>39.76822165667826</v>
+        <v>45.50287636846186</v>
       </c>
       <c r="H8">
-        <v>12.81813732970394</v>
+        <v>18.36000518218508</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.207831843037301</v>
+        <v>11.4561345173744</v>
       </c>
       <c r="K8">
-        <v>11.66967081213932</v>
+        <v>11.15035902580497</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.39897494487341</v>
+        <v>12.24969335357823</v>
       </c>
       <c r="C9">
-        <v>8.283045644479667</v>
+        <v>4.670569887563625</v>
       </c>
       <c r="D9">
-        <v>8.416708054767904</v>
+        <v>9.222573676846324</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.19823035597767</v>
+        <v>40.14493643281099</v>
       </c>
       <c r="G9">
-        <v>42.51066523488152</v>
+        <v>45.86899708749608</v>
       </c>
       <c r="H9">
-        <v>13.06262335925118</v>
+        <v>18.31148258255372</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.879718889149517</v>
+        <v>11.50668747125741</v>
       </c>
       <c r="K9">
-        <v>13.44038442722349</v>
+        <v>11.50745814691009</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.83815737926624</v>
+        <v>12.65201388307152</v>
       </c>
       <c r="C10">
-        <v>8.966176983640203</v>
+        <v>4.96172575038377</v>
       </c>
       <c r="D10">
-        <v>9.107130563600958</v>
+        <v>9.350190894375796</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.84524062139909</v>
+        <v>40.34199838007497</v>
       </c>
       <c r="G10">
-        <v>44.63754928237997</v>
+        <v>46.19375608098899</v>
       </c>
       <c r="H10">
-        <v>13.29003268191865</v>
+        <v>18.29089429791249</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.376350797285218</v>
+        <v>11.55494859223957</v>
       </c>
       <c r="K10">
-        <v>14.62432294660938</v>
+        <v>11.77536819610895</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.4619629100144</v>
+        <v>12.83379660254008</v>
       </c>
       <c r="C11">
-        <v>9.263584623675678</v>
+        <v>5.089452780213975</v>
       </c>
       <c r="D11">
-        <v>9.410302496779487</v>
+        <v>9.40972128585271</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.61013377228523</v>
+        <v>40.44109135786992</v>
       </c>
       <c r="G11">
-        <v>45.62886976055866</v>
+        <v>46.35331770895972</v>
       </c>
       <c r="H11">
-        <v>13.4048550161891</v>
+        <v>18.28481062197386</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.60245623266826</v>
+        <v>11.57927723575568</v>
       </c>
       <c r="K11">
-        <v>15.13832458617808</v>
+        <v>11.89791580416898</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.69384503932285</v>
+        <v>12.90238340323495</v>
       </c>
       <c r="C12">
-        <v>9.374322345929638</v>
+        <v>5.137102668848401</v>
       </c>
       <c r="D12">
-        <v>9.523529922151761</v>
+        <v>9.432458798396743</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.90200114774969</v>
+        <v>40.47995790959937</v>
       </c>
       <c r="G12">
-        <v>46.00766719500511</v>
+        <v>46.41541060354177</v>
       </c>
       <c r="H12">
-        <v>13.45005368879959</v>
+        <v>18.28297950169674</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.688077658500632</v>
+        <v>11.58882708896271</v>
       </c>
       <c r="K12">
-        <v>15.32950481664671</v>
+        <v>11.94437414118122</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.64409637913419</v>
+        <v>12.88762426289618</v>
       </c>
       <c r="C13">
-        <v>9.350556143438897</v>
+        <v>5.126872883052759</v>
       </c>
       <c r="D13">
-        <v>9.499214520445033</v>
+        <v>9.427553496090118</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.83904378490829</v>
+        <v>40.47152789142572</v>
       </c>
       <c r="G13">
-        <v>45.92593471312984</v>
+        <v>46.40196401360367</v>
       </c>
       <c r="H13">
-        <v>13.44024159636817</v>
+        <v>18.28335283666436</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.669637835570988</v>
+        <v>11.58675543665109</v>
       </c>
       <c r="K13">
-        <v>15.28848340996063</v>
+        <v>11.93436688662625</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.48112635464646</v>
+        <v>12.83944470132579</v>
       </c>
       <c r="C14">
-        <v>9.272732611610332</v>
+        <v>5.093387547883773</v>
       </c>
       <c r="D14">
-        <v>9.41964939957772</v>
+        <v>9.411588116082607</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.63410148273355</v>
+        <v>40.44426213441746</v>
       </c>
       <c r="G14">
-        <v>45.65996533537792</v>
+        <v>46.3583928369082</v>
       </c>
       <c r="H14">
-        <v>13.40853862561711</v>
+        <v>18.28465049902107</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.609500463334465</v>
+        <v>11.58005617765289</v>
       </c>
       <c r="K14">
-        <v>15.1541220144337</v>
+        <v>11.90173716579798</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.38074051714577</v>
+        <v>12.80989862654007</v>
       </c>
       <c r="C15">
-        <v>9.224819274422408</v>
+        <v>5.072782313461161</v>
       </c>
       <c r="D15">
-        <v>9.370708024452073</v>
+        <v>9.401833678278466</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.50885693230205</v>
+        <v>40.42773534082392</v>
       </c>
       <c r="G15">
-        <v>45.49749520289989</v>
+        <v>46.33192081083071</v>
       </c>
       <c r="H15">
-        <v>13.3893458630111</v>
+        <v>18.28550692296309</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.572664033674329</v>
+        <v>11.57599645640488</v>
       </c>
       <c r="K15">
-        <v>15.07137336416834</v>
+        <v>11.88175600861366</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.79677727604819</v>
+        <v>12.64010279848226</v>
       </c>
       <c r="C16">
-        <v>8.946474923571602</v>
+        <v>4.953280050853227</v>
       </c>
       <c r="D16">
-        <v>9.087097045889957</v>
+        <v>9.346328651634675</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.79556466237084</v>
+        <v>40.33571118447306</v>
       </c>
       <c r="G16">
-        <v>44.57324068476468</v>
+        <v>46.18356382129421</v>
       </c>
       <c r="H16">
-        <v>13.28276462215448</v>
+        <v>18.29135798593488</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.361575471238867</v>
+        <v>11.55340607827331</v>
       </c>
       <c r="K16">
-        <v>14.59024323558396</v>
+        <v>11.76736914308979</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.43069457047187</v>
+        <v>12.53556931352865</v>
       </c>
       <c r="C17">
-        <v>8.772323169299296</v>
+        <v>4.878730730164651</v>
       </c>
       <c r="D17">
-        <v>8.910307123704726</v>
+        <v>9.312643833333951</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>35.36196096691216</v>
+        <v>40.28166623176833</v>
       </c>
       <c r="G17">
-        <v>44.01231076341631</v>
+        <v>46.0955602181027</v>
       </c>
       <c r="H17">
-        <v>13.22035131203258</v>
+        <v>18.29578857546466</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.232104357099399</v>
+        <v>11.54015282198924</v>
       </c>
       <c r="K17">
-        <v>14.2888400439939</v>
+        <v>11.69733705954039</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.21721989790665</v>
+        <v>12.47533231186721</v>
       </c>
       <c r="C18">
-        <v>8.670896312570092</v>
+        <v>4.835409474235728</v>
       </c>
       <c r="D18">
-        <v>8.807595477487929</v>
+        <v>9.293409290152276</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.11403785213269</v>
+        <v>40.25147145729427</v>
       </c>
       <c r="G18">
-        <v>43.69191670380335</v>
+        <v>46.04605811794749</v>
       </c>
       <c r="H18">
-        <v>13.1855182280863</v>
+        <v>18.29864582472578</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.157654279486621</v>
+        <v>11.53275367610954</v>
       </c>
       <c r="K18">
-        <v>14.11316263139429</v>
+        <v>11.65712252425406</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.14443763446339</v>
+        <v>12.45492012210628</v>
       </c>
       <c r="C19">
-        <v>8.636337644145968</v>
+        <v>4.820666920319675</v>
       </c>
       <c r="D19">
-        <v>8.772643231790807</v>
+        <v>9.286921396391479</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.0303500468536</v>
+        <v>40.24140143174249</v>
       </c>
       <c r="G19">
-        <v>43.58382225584749</v>
+        <v>46.02948997585165</v>
       </c>
       <c r="H19">
-        <v>13.17390485101149</v>
+        <v>18.29966626890427</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.132450900570879</v>
+        <v>11.53028701088125</v>
       </c>
       <c r="K19">
-        <v>14.05328101365462</v>
+        <v>11.64351929659825</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.46996552737487</v>
+        <v>12.54670922305318</v>
       </c>
       <c r="C20">
-        <v>8.790992023444701</v>
+        <v>4.886712723378778</v>
       </c>
       <c r="D20">
-        <v>8.929233087069093</v>
+        <v>9.316215269960793</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>35.40796657609079</v>
+        <v>40.28732736381642</v>
       </c>
       <c r="G20">
-        <v>44.07179132330502</v>
+        <v>46.10481313820652</v>
       </c>
       <c r="H20">
-        <v>13.22688446027127</v>
+        <v>18.29528495698316</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.245885115147349</v>
+        <v>11.54154052363491</v>
       </c>
       <c r="K20">
-        <v>14.32116435543407</v>
+        <v>11.70478558328338</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.5291115283766</v>
+        <v>12.85360356295765</v>
       </c>
       <c r="C21">
-        <v>9.295642081406804</v>
+        <v>5.103242757430785</v>
       </c>
       <c r="D21">
-        <v>9.443062415707642</v>
+        <v>9.41627239501565</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.69423788968913</v>
+        <v>40.45223446267089</v>
       </c>
       <c r="G21">
-        <v>45.73799447141768</v>
+        <v>46.37114567152626</v>
       </c>
       <c r="H21">
-        <v>13.41780326088324</v>
+        <v>18.28425651239102</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.627164412628222</v>
+        <v>11.58201479941417</v>
       </c>
       <c r="K21">
-        <v>15.19368052039168</v>
+        <v>11.91132024031268</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.19608311786622</v>
+        <v>13.05268633554397</v>
       </c>
       <c r="C22">
-        <v>9.614499870147728</v>
+        <v>5.240561014613678</v>
       </c>
       <c r="D22">
-        <v>9.79593148153713</v>
+        <v>9.482791666026419</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.5478325307464</v>
+        <v>40.56782508012294</v>
       </c>
       <c r="G22">
-        <v>46.84683050017425</v>
+        <v>46.55492935023865</v>
       </c>
       <c r="H22">
-        <v>13.55263368497543</v>
+        <v>18.27980385674014</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.876350105808731</v>
+        <v>11.61042980232173</v>
       </c>
       <c r="K22">
-        <v>15.74378661701012</v>
+        <v>12.0465869008549</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.84238197131764</v>
+        <v>12.94659155583402</v>
       </c>
       <c r="C23">
-        <v>9.44530859639065</v>
+        <v>5.167667024285969</v>
       </c>
       <c r="D23">
-        <v>9.603647527631743</v>
+        <v>9.447191950470824</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>37.09107125784527</v>
+        <v>40.50542313739003</v>
       </c>
       <c r="G23">
-        <v>46.25319916913933</v>
+        <v>46.45596197997441</v>
       </c>
       <c r="H23">
-        <v>13.47972418892364</v>
+        <v>18.28192805546588</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.743360801573568</v>
+        <v>11.5950861233324</v>
       </c>
       <c r="K23">
-        <v>15.45200052242935</v>
+        <v>11.97438104362977</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.45222050726947</v>
+        <v>12.54167329827082</v>
       </c>
       <c r="C24">
-        <v>8.782555900945875</v>
+        <v>4.883105499850219</v>
       </c>
       <c r="D24">
-        <v>8.920679999608753</v>
+        <v>9.314600213115733</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>35.38716319670262</v>
+        <v>40.28476523476041</v>
       </c>
       <c r="G24">
-        <v>44.04489364425635</v>
+        <v>46.1006264880195</v>
       </c>
       <c r="H24">
-        <v>13.22392756226725</v>
+        <v>18.29551167710494</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.239654880272084</v>
+        <v>11.54091245710505</v>
       </c>
       <c r="K24">
-        <v>14.30655800486625</v>
+        <v>11.70141795323559</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.84095259321978</v>
+        <v>12.10094247225337</v>
       </c>
       <c r="C25">
-        <v>8.019437811965204</v>
+        <v>4.559453314938815</v>
       </c>
       <c r="D25">
-        <v>8.152924414374263</v>
+        <v>9.177001766763908</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.60595779263961</v>
+        <v>40.08084095863735</v>
       </c>
       <c r="G25">
-        <v>41.74880725070257</v>
+        <v>45.76006977474178</v>
       </c>
       <c r="H25">
-        <v>12.98842298481559</v>
+        <v>18.3219688064491</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.697232819144094</v>
+        <v>11.49104608537793</v>
       </c>
       <c r="K25">
-        <v>12.98215207929808</v>
+        <v>11.4096954059166</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_133/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_133/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.77581247187431</v>
+        <v>13.55480018283556</v>
       </c>
       <c r="C2">
-        <v>4.30849388745423</v>
+        <v>7.415028228862294</v>
       </c>
       <c r="D2">
-        <v>9.080955490700255</v>
+        <v>7.555015745111928</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.9604522511483</v>
+        <v>32.34542467036158</v>
       </c>
       <c r="G2">
-        <v>45.54692491945634</v>
+        <v>40.13385380319535</v>
       </c>
       <c r="H2">
-        <v>18.35156440166791</v>
+        <v>12.84675087045716</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.46182058656796</v>
+        <v>8.300089261913007</v>
       </c>
       <c r="K2">
-        <v>11.19885843170536</v>
+        <v>11.92811109743627</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.55658328728954</v>
+        <v>12.61920748654368</v>
       </c>
       <c r="C3">
-        <v>4.131615732348081</v>
+        <v>6.978596149007242</v>
       </c>
       <c r="D3">
-        <v>9.019440278390874</v>
+        <v>7.130510844212695</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39.89759092664531</v>
+        <v>31.52456575835535</v>
       </c>
       <c r="G3">
-        <v>45.42626749852234</v>
+        <v>39.0880819992982</v>
       </c>
       <c r="H3">
-        <v>18.37790802060222</v>
+        <v>12.76901986272432</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.4467360776916</v>
+        <v>8.033383667712375</v>
       </c>
       <c r="K3">
-        <v>11.0592728001403</v>
+        <v>11.16357113031935</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.42304943565954</v>
+        <v>12.01266834545679</v>
       </c>
       <c r="C4">
-        <v>4.020101316065793</v>
+        <v>6.697383939749649</v>
       </c>
       <c r="D4">
-        <v>8.983525954741829</v>
+        <v>6.860889403479218</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>39.86826908190728</v>
+        <v>31.03766024396926</v>
       </c>
       <c r="G4">
-        <v>45.36400271550427</v>
+        <v>38.4705721696933</v>
       </c>
       <c r="H4">
-        <v>18.39717498749985</v>
+        <v>12.72980616837234</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.43981626113052</v>
+        <v>7.871256908580035</v>
       </c>
       <c r="K4">
-        <v>10.97547241743088</v>
+        <v>10.66912485796429</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.36898407990322</v>
+        <v>11.75735607748308</v>
       </c>
       <c r="C5">
-        <v>3.974002560886933</v>
+        <v>6.579467347655855</v>
       </c>
       <c r="D5">
-        <v>8.969370811841101</v>
+        <v>6.748867048131873</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.85865711173489</v>
+        <v>30.84364097308024</v>
       </c>
       <c r="G5">
-        <v>45.3416117433708</v>
+        <v>38.22520555590491</v>
       </c>
       <c r="H5">
-        <v>18.40580254823609</v>
+        <v>12.71589205219622</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.4375870875789</v>
+        <v>7.805670756867773</v>
       </c>
       <c r="K5">
-        <v>10.94184395028145</v>
+        <v>10.46131725135391</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.36003012518539</v>
+        <v>11.71446770891243</v>
       </c>
       <c r="C6">
-        <v>3.966310690932637</v>
+        <v>6.559687325174599</v>
       </c>
       <c r="D6">
-        <v>8.967049743916789</v>
+        <v>6.730139618956867</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.85720228981437</v>
+        <v>30.8116926215819</v>
       </c>
       <c r="G6">
-        <v>45.33807410614778</v>
+        <v>38.18484387724465</v>
       </c>
       <c r="H6">
-        <v>18.40728198090933</v>
+        <v>12.71370418489083</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.43725265536836</v>
+        <v>7.794811506148283</v>
       </c>
       <c r="K6">
-        <v>10.93629262634512</v>
+        <v>10.42642886467678</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.42231876399305</v>
+        <v>12.00925818265667</v>
       </c>
       <c r="C7">
-        <v>4.019482160076425</v>
+        <v>6.695807099411326</v>
       </c>
       <c r="D7">
-        <v>8.983333091885022</v>
+        <v>6.859387174100581</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>39.86812998497075</v>
+        <v>31.03502569738549</v>
       </c>
       <c r="G7">
-        <v>45.36368865627578</v>
+        <v>38.46723755952857</v>
       </c>
       <c r="H7">
-        <v>18.39728820129609</v>
+        <v>12.72961025306485</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.43978380395646</v>
+        <v>7.87037034197137</v>
       </c>
       <c r="K7">
-        <v>10.97501672888071</v>
+        <v>10.66634789596035</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.70004762723546</v>
+        <v>13.23882008475275</v>
       </c>
       <c r="C8">
-        <v>4.248153381009556</v>
+        <v>7.267296990096872</v>
       </c>
       <c r="D8">
-        <v>9.05936809223104</v>
+        <v>7.410565728425675</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.936855923239</v>
+        <v>32.05890175243857</v>
       </c>
       <c r="G8">
-        <v>45.50287636846186</v>
+        <v>39.76822165667818</v>
       </c>
       <c r="H8">
-        <v>18.36000518218508</v>
+        <v>12.81813732970397</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.4561345173744</v>
+        <v>8.207831843037297</v>
       </c>
       <c r="K8">
-        <v>11.15035902580497</v>
+        <v>11.66967081213929</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.24969335357823</v>
+        <v>15.39897494487344</v>
       </c>
       <c r="C9">
-        <v>4.670569887563625</v>
+        <v>8.283045644479834</v>
       </c>
       <c r="D9">
-        <v>9.222573676846324</v>
+        <v>8.416708054767943</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.14493643281099</v>
+        <v>34.19823035597763</v>
       </c>
       <c r="G9">
-        <v>45.86899708749608</v>
+        <v>42.51066523488132</v>
       </c>
       <c r="H9">
-        <v>18.31148258255372</v>
+        <v>13.06262335925108</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.50668747125741</v>
+        <v>8.879718889149487</v>
       </c>
       <c r="K9">
-        <v>11.50745814691009</v>
+        <v>13.4403844272236</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.65201388307152</v>
+        <v>16.83815737926623</v>
       </c>
       <c r="C10">
-        <v>4.96172575038377</v>
+        <v>8.966176983640239</v>
       </c>
       <c r="D10">
-        <v>9.350190894375796</v>
+        <v>9.107130563600947</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>40.34199838007497</v>
+        <v>35.84524062139902</v>
       </c>
       <c r="G10">
-        <v>46.19375608098899</v>
+        <v>44.63754928237996</v>
       </c>
       <c r="H10">
-        <v>18.29089429791249</v>
+        <v>13.29003268191863</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.55494859223957</v>
+        <v>9.376350797285225</v>
       </c>
       <c r="K10">
-        <v>11.77536819610895</v>
+        <v>14.62432294660939</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.83379660254008</v>
+        <v>17.46196291001435</v>
       </c>
       <c r="C11">
-        <v>5.089452780213975</v>
+        <v>9.263584623675852</v>
       </c>
       <c r="D11">
-        <v>9.40972128585271</v>
+        <v>9.41030249677946</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40.44109135786992</v>
+        <v>36.61013377228524</v>
       </c>
       <c r="G11">
-        <v>46.35331770895972</v>
+        <v>45.62886976055868</v>
       </c>
       <c r="H11">
-        <v>18.28481062197386</v>
+        <v>13.4048550161891</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.57927723575568</v>
+        <v>9.602456232668281</v>
       </c>
       <c r="K11">
-        <v>11.89791580416898</v>
+        <v>15.13832458617808</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.90238340323495</v>
+        <v>17.69384503932292</v>
       </c>
       <c r="C12">
-        <v>5.137102668848401</v>
+        <v>9.3743223459295</v>
       </c>
       <c r="D12">
-        <v>9.432458798396743</v>
+        <v>9.523529922151774</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40.47995790959937</v>
+        <v>36.90200114774966</v>
       </c>
       <c r="G12">
-        <v>46.41541060354177</v>
+        <v>46.00766719500508</v>
       </c>
       <c r="H12">
-        <v>18.28297950169674</v>
+        <v>13.45005368879959</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.58882708896271</v>
+        <v>9.688077658500626</v>
       </c>
       <c r="K12">
-        <v>11.94437414118122</v>
+        <v>15.32950481664671</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.88762426289618</v>
+        <v>17.64409637913419</v>
       </c>
       <c r="C13">
-        <v>5.126872883052759</v>
+        <v>9.350556143438824</v>
       </c>
       <c r="D13">
-        <v>9.427553496090118</v>
+        <v>9.499214520445003</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>40.47152789142572</v>
+        <v>36.83904378490829</v>
       </c>
       <c r="G13">
-        <v>46.40196401360367</v>
+        <v>45.92593471312988</v>
       </c>
       <c r="H13">
-        <v>18.28335283666436</v>
+        <v>13.44024159636828</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.58675543665109</v>
+        <v>9.66963783557097</v>
       </c>
       <c r="K13">
-        <v>11.93436688662625</v>
+        <v>15.28848340996058</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.83944470132579</v>
+        <v>17.4811263546464</v>
       </c>
       <c r="C14">
-        <v>5.093387547883773</v>
+        <v>9.272732611610349</v>
       </c>
       <c r="D14">
-        <v>9.411588116082607</v>
+        <v>9.419649399577731</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>40.44426213441746</v>
+        <v>36.63410148273351</v>
       </c>
       <c r="G14">
-        <v>46.3583928369082</v>
+        <v>45.65996533537788</v>
       </c>
       <c r="H14">
-        <v>18.28465049902107</v>
+        <v>13.40853862561707</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.58005617765289</v>
+        <v>9.609500463334493</v>
       </c>
       <c r="K14">
-        <v>11.90173716579798</v>
+        <v>15.15412201443362</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.80989862654007</v>
+        <v>17.38074051714579</v>
       </c>
       <c r="C15">
-        <v>5.072782313461161</v>
+        <v>9.224819274422307</v>
       </c>
       <c r="D15">
-        <v>9.401833678278466</v>
+        <v>9.370708024452114</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>40.42773534082392</v>
+        <v>36.50885693230209</v>
       </c>
       <c r="G15">
-        <v>46.33192081083071</v>
+        <v>45.49749520290001</v>
       </c>
       <c r="H15">
-        <v>18.28550692296309</v>
+        <v>13.3893458630111</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.57599645640488</v>
+        <v>9.572664033674315</v>
       </c>
       <c r="K15">
-        <v>11.88175600861366</v>
+        <v>15.07137336416831</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.64010279848226</v>
+        <v>16.79677727604817</v>
       </c>
       <c r="C16">
-        <v>4.953280050853227</v>
+        <v>8.946474923571602</v>
       </c>
       <c r="D16">
-        <v>9.346328651634675</v>
+        <v>9.087097045889921</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>40.33571118447306</v>
+        <v>35.7955646623708</v>
       </c>
       <c r="G16">
-        <v>46.18356382129421</v>
+        <v>44.57324068476475</v>
       </c>
       <c r="H16">
-        <v>18.29135798593488</v>
+        <v>13.28276462215451</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.55340607827331</v>
+        <v>9.361575471238845</v>
       </c>
       <c r="K16">
-        <v>11.76736914308979</v>
+        <v>14.59024323558395</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.53556931352865</v>
+        <v>16.4306945704719</v>
       </c>
       <c r="C17">
-        <v>4.878730730164651</v>
+        <v>8.772323169299296</v>
       </c>
       <c r="D17">
-        <v>9.312643833333951</v>
+        <v>8.910307123704715</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>40.28166623176833</v>
+        <v>35.36196096691198</v>
       </c>
       <c r="G17">
-        <v>46.0955602181027</v>
+        <v>44.01231076341606</v>
       </c>
       <c r="H17">
-        <v>18.29578857546466</v>
+        <v>13.22035131203253</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.54015282198924</v>
+        <v>9.23210435709939</v>
       </c>
       <c r="K17">
-        <v>11.69733705954039</v>
+        <v>14.28884004399395</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.47533231186721</v>
+        <v>16.21721989790662</v>
       </c>
       <c r="C18">
-        <v>4.835409474235728</v>
+        <v>8.670896312570088</v>
       </c>
       <c r="D18">
-        <v>9.293409290152276</v>
+        <v>8.807595477487924</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>40.25147145729427</v>
+        <v>35.11403785213269</v>
       </c>
       <c r="G18">
-        <v>46.04605811794749</v>
+        <v>43.6919167038033</v>
       </c>
       <c r="H18">
-        <v>18.29864582472578</v>
+        <v>13.18551822808638</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.53275367610954</v>
+        <v>9.157654279486573</v>
       </c>
       <c r="K18">
-        <v>11.65712252425406</v>
+        <v>14.11316263139428</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.45492012210628</v>
+        <v>16.14443763446344</v>
       </c>
       <c r="C19">
-        <v>4.820666920319675</v>
+        <v>8.636337644146153</v>
       </c>
       <c r="D19">
-        <v>9.286921396391479</v>
+        <v>8.772643231790836</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>40.24140143174249</v>
+        <v>35.03035004685351</v>
       </c>
       <c r="G19">
-        <v>46.02948997585165</v>
+        <v>43.58382225584732</v>
       </c>
       <c r="H19">
-        <v>18.29966626890427</v>
+        <v>13.17390485101138</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.53028701088125</v>
+        <v>9.132450900570882</v>
       </c>
       <c r="K19">
-        <v>11.64351929659825</v>
+        <v>14.0532810136547</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.54670922305318</v>
+        <v>16.46996552737478</v>
       </c>
       <c r="C20">
-        <v>4.886712723378778</v>
+        <v>8.79099202344486</v>
       </c>
       <c r="D20">
-        <v>9.316215269960793</v>
+        <v>8.929233087069079</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>40.28732736381642</v>
+        <v>35.40796657609079</v>
       </c>
       <c r="G20">
-        <v>46.10481313820652</v>
+        <v>44.07179132330508</v>
       </c>
       <c r="H20">
-        <v>18.29528495698316</v>
+        <v>13.22688446027133</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.54154052363491</v>
+        <v>9.24588511514731</v>
       </c>
       <c r="K20">
-        <v>11.70478558328338</v>
+        <v>14.32116435543401</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.85360356295765</v>
+        <v>17.52911152837661</v>
       </c>
       <c r="C21">
-        <v>5.103242757430785</v>
+        <v>9.295642081406784</v>
       </c>
       <c r="D21">
-        <v>9.41627239501565</v>
+        <v>9.443062415707649</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>40.45223446267089</v>
+        <v>36.69423788968903</v>
       </c>
       <c r="G21">
-        <v>46.37114567152626</v>
+        <v>45.73799447141765</v>
       </c>
       <c r="H21">
-        <v>18.28425651239102</v>
+        <v>13.41780326088323</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.58201479941417</v>
+        <v>9.627164412628206</v>
       </c>
       <c r="K21">
-        <v>11.91132024031268</v>
+        <v>15.19368052039168</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.05268633554397</v>
+        <v>18.19608311786637</v>
       </c>
       <c r="C22">
-        <v>5.240561014613678</v>
+        <v>9.614499870147803</v>
       </c>
       <c r="D22">
-        <v>9.482791666026419</v>
+        <v>9.795931481537155</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>40.56782508012294</v>
+        <v>37.54783253074641</v>
       </c>
       <c r="G22">
-        <v>46.55492935023865</v>
+        <v>46.84683050017428</v>
       </c>
       <c r="H22">
-        <v>18.27980385674014</v>
+        <v>13.55263368497536</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.61042980232173</v>
+        <v>9.876350105808722</v>
       </c>
       <c r="K22">
-        <v>12.0465869008549</v>
+        <v>15.74378661701025</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.94659155583402</v>
+        <v>17.84238197131767</v>
       </c>
       <c r="C23">
-        <v>5.167667024285969</v>
+        <v>9.44530859639058</v>
       </c>
       <c r="D23">
-        <v>9.447191950470824</v>
+        <v>9.603647527631722</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>40.50542313739003</v>
+        <v>37.09107125784531</v>
       </c>
       <c r="G23">
-        <v>46.45596197997441</v>
+        <v>46.25319916913939</v>
       </c>
       <c r="H23">
-        <v>18.28192805546588</v>
+        <v>13.4797241889236</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.5950861233324</v>
+        <v>9.743360801573555</v>
       </c>
       <c r="K23">
-        <v>11.97438104362977</v>
+        <v>15.45200052242935</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.54167329827082</v>
+        <v>16.45222050726944</v>
       </c>
       <c r="C24">
-        <v>4.883105499850219</v>
+        <v>8.782555900945882</v>
       </c>
       <c r="D24">
-        <v>9.314600213115733</v>
+        <v>8.920679999608746</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>40.28476523476041</v>
+        <v>35.38716319670268</v>
       </c>
       <c r="G24">
-        <v>46.1006264880195</v>
+        <v>44.04489364425644</v>
       </c>
       <c r="H24">
-        <v>18.29551167710494</v>
+        <v>13.22392756226727</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.54091245710505</v>
+        <v>9.23965488027204</v>
       </c>
       <c r="K24">
-        <v>11.70141795323559</v>
+        <v>14.30655800486621</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.10094247225337</v>
+        <v>14.84095259321975</v>
       </c>
       <c r="C25">
-        <v>4.559453314938815</v>
+        <v>8.019437811965172</v>
       </c>
       <c r="D25">
-        <v>9.177001766763908</v>
+        <v>8.152924414374239</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.08084095863735</v>
+        <v>33.6059577926398</v>
       </c>
       <c r="G25">
-        <v>45.76006977474178</v>
+        <v>41.74880725070284</v>
       </c>
       <c r="H25">
-        <v>18.3219688064491</v>
+        <v>12.98842298481567</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.49104608537793</v>
+        <v>8.697232819144123</v>
       </c>
       <c r="K25">
-        <v>11.4096954059166</v>
+        <v>12.98215207929805</v>
       </c>
       <c r="L25">
         <v>0</v>
